--- a/biology/Botanique/Parc_national_de_Mezyn/Parc_national_de_Mezyn.xlsx
+++ b/biology/Botanique/Parc_national_de_Mezyn/Parc_national_de_Mezyn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national de Mezyn (en ukrainien : Мезинський національний природний парк) est un parc national situé dans l’oblast de Tchernihiv, au nord-est de l’Ukraine.
 Le parc a été créé par le décret présidentiel du 10 février 2006 pour protéger la faune et la flore du bassin de la Desna.
-			Au village de Sverdovska, réserve naturelle[2],
-			église du raïon de Korp, classée[3],
-			le lac Pidkova, réserve naturelle[4],
+			Au village de Sverdovska, réserve naturelle,
+			église du raïon de Korp, classée,
+			le lac Pidkova, réserve naturelle,
 			réserve Zverdovski,
-			Datcha Rykhliv de la forêt Ponornidski, réserve naturelle[5],
+			Datcha Rykhliv de la forêt Ponornidski, réserve naturelle,
 			monastère de Rykhliv,
 			le méandre de la Desna au village de Mezin.
 </t>
@@ -519,7 +531,9 @@
           <t>Voir Aussi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste des parcs nationaux de l'Ukraine .</t>
         </is>
